--- a/ATF4-reporter_IncuCyte/sample_annotations.xlsx
+++ b/ATF4-reporter_IncuCyte/sample_annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/ATF4-reporter_IncuCyte/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3706D8F3-B3C8-4847-9653-EA39390670A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F752EF-DCDA-DD45-A593-99C98CF79AFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8880" yWindow="1060" windowWidth="19580" windowHeight="16540" xr2:uid="{074EFF7D-5861-BA4A-B250-D9D28156A76F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="69">
   <si>
     <t>Folder</t>
   </si>
@@ -216,10 +216,31 @@
     <t>HT1080-WT_ATF4-rep_HRI-KO-pool</t>
   </si>
   <si>
-    <t>02-04-22_low</t>
-  </si>
-  <si>
     <t>HT1080-WT_ATF4-rep_OMA1-KO-pool</t>
+  </si>
+  <si>
+    <t>NA1</t>
+  </si>
+  <si>
+    <t>NA2</t>
+  </si>
+  <si>
+    <t>02-04-22_low-HRI</t>
+  </si>
+  <si>
+    <t>02-04-22_low-OMA1</t>
+  </si>
+  <si>
+    <t>02-15-22_low-eGFP</t>
+  </si>
+  <si>
+    <t>HT1080-WT_ATF4-rep_eGFP</t>
+  </si>
+  <si>
+    <t>HT1080-WT_ATF4-rep_ASNS</t>
+  </si>
+  <si>
+    <t>02-15-22_low-ASNS</t>
   </si>
 </sst>
 </file>
@@ -227,7 +248,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -279,8 +300,8 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -596,16 +617,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A08CB7-A45B-BD41-BBD8-43BF4774D53B}">
-  <dimension ref="A1:O84"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -688,19 +709,19 @@
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -735,19 +756,19 @@
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -782,19 +803,19 @@
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -829,19 +850,19 @@
         <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -876,19 +897,19 @@
         <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O6" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -914,7 +935,7 @@
         <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
         <v>51</v>
@@ -923,19 +944,19 @@
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -970,19 +991,19 @@
         <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N8" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O8" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1017,19 +1038,19 @@
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N9" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O9" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1064,19 +1085,19 @@
         <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O10" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1111,19 +1132,19 @@
         <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O11" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1158,19 +1179,19 @@
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O12" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1196,7 +1217,7 @@
         <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
         <v>51</v>
@@ -1205,19 +1226,19 @@
         <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N13" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="O13" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1252,19 +1273,19 @@
         <v>11</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O14" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1299,19 +1320,19 @@
         <v>11</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O15" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1346,19 +1367,19 @@
         <v>11</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O16" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1393,19 +1414,19 @@
         <v>11</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O17" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -1440,19 +1461,19 @@
         <v>11</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N18" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O18" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1478,7 +1499,7 @@
         <v>51</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
         <v>51</v>
@@ -1487,19 +1508,19 @@
         <v>11</v>
       </c>
       <c r="K19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N19" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="O19" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1534,19 +1555,19 @@
         <v>11</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O20" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1581,19 +1602,19 @@
         <v>11</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N21" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O21" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1628,19 +1649,19 @@
         <v>11</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N22" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O22" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -1675,19 +1696,19 @@
         <v>11</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N23" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O23" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1713,7 +1734,7 @@
         <v>51</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I24" t="s">
         <v>51</v>
@@ -1722,19 +1743,19 @@
         <v>11</v>
       </c>
       <c r="K24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N24" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="O24" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -2312,7 +2333,7 @@
         <v>3</v>
       </c>
       <c r="D37">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -2359,7 +2380,7 @@
         <v>4</v>
       </c>
       <c r="D38">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -2406,7 +2427,7 @@
         <v>5</v>
       </c>
       <c r="D39">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -2453,7 +2474,7 @@
         <v>6</v>
       </c>
       <c r="D40">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -2500,7 +2521,7 @@
         <v>7</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -2547,7 +2568,7 @@
         <v>8</v>
       </c>
       <c r="D42">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -4046,7 +4067,7 @@
         <v>59</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
@@ -4093,7 +4114,7 @@
         <v>59</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
@@ -4140,7 +4161,7 @@
         <v>59</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -4187,7 +4208,7 @@
         <v>59</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -4234,7 +4255,7 @@
         <v>59</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
@@ -4281,7 +4302,7 @@
         <v>59</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
@@ -4325,10 +4346,10 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -4372,10 +4393,10 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -4419,10 +4440,10 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -4466,10 +4487,10 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
@@ -4513,10 +4534,10 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -4560,10 +4581,10 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C84" t="s">
         <v>8</v>
@@ -4603,6 +4624,288 @@
       </c>
       <c r="O84" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>66</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>20</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>51</v>
+      </c>
+      <c r="H85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" t="s">
+        <v>51</v>
+      </c>
+      <c r="J85" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" t="s">
+        <v>23</v>
+      </c>
+      <c r="L85" t="s">
+        <v>24</v>
+      </c>
+      <c r="M85" t="s">
+        <v>25</v>
+      </c>
+      <c r="N85" t="s">
+        <v>26</v>
+      </c>
+      <c r="O85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>20</v>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>51</v>
+      </c>
+      <c r="H86" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" t="s">
+        <v>51</v>
+      </c>
+      <c r="J86" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" t="s">
+        <v>23</v>
+      </c>
+      <c r="L86" t="s">
+        <v>24</v>
+      </c>
+      <c r="M86" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" t="s">
+        <v>26</v>
+      </c>
+      <c r="O86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>20</v>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>51</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" t="s">
+        <v>51</v>
+      </c>
+      <c r="J87" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" t="s">
+        <v>23</v>
+      </c>
+      <c r="L87" t="s">
+        <v>24</v>
+      </c>
+      <c r="M87" t="s">
+        <v>25</v>
+      </c>
+      <c r="N87" t="s">
+        <v>26</v>
+      </c>
+      <c r="O87" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>67</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>20</v>
+      </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>51</v>
+      </c>
+      <c r="H88" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" t="s">
+        <v>51</v>
+      </c>
+      <c r="J88" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" t="s">
+        <v>23</v>
+      </c>
+      <c r="L88" t="s">
+        <v>24</v>
+      </c>
+      <c r="M88" t="s">
+        <v>25</v>
+      </c>
+      <c r="N88" t="s">
+        <v>26</v>
+      </c>
+      <c r="O88" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>20</v>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>51</v>
+      </c>
+      <c r="H89" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" t="s">
+        <v>51</v>
+      </c>
+      <c r="J89" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" t="s">
+        <v>23</v>
+      </c>
+      <c r="L89" t="s">
+        <v>24</v>
+      </c>
+      <c r="M89" t="s">
+        <v>25</v>
+      </c>
+      <c r="N89" t="s">
+        <v>26</v>
+      </c>
+      <c r="O89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>20</v>
+      </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>51</v>
+      </c>
+      <c r="H90" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" t="s">
+        <v>51</v>
+      </c>
+      <c r="J90" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" t="s">
+        <v>23</v>
+      </c>
+      <c r="L90" t="s">
+        <v>24</v>
+      </c>
+      <c r="M90" t="s">
+        <v>25</v>
+      </c>
+      <c r="N90" t="s">
+        <v>26</v>
+      </c>
+      <c r="O90" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/ATF4-reporter_IncuCyte/sample_annotations.xlsx
+++ b/ATF4-reporter_IncuCyte/sample_annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/ATF4-reporter_IncuCyte/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F752EF-DCDA-DD45-A593-99C98CF79AFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD096A64-FB24-FA43-AF74-8F04B61E1274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8880" yWindow="1060" windowWidth="19580" windowHeight="16540" xr2:uid="{074EFF7D-5861-BA4A-B250-D9D28156A76F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="71">
   <si>
     <t>Folder</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>02-15-22_low-ASNS</t>
+  </si>
+  <si>
+    <t>02-15-22_low-eGFP-mean</t>
+  </si>
+  <si>
+    <t>02-15-22_low-ASNS-mean</t>
   </si>
 </sst>
 </file>
@@ -617,16 +623,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A08CB7-A45B-BD41-BBD8-43BF4774D53B}">
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4908,6 +4914,288 @@
         <v>27</v>
       </c>
     </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>20</v>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>51</v>
+      </c>
+      <c r="H91" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" t="s">
+        <v>51</v>
+      </c>
+      <c r="J91" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" t="s">
+        <v>23</v>
+      </c>
+      <c r="L91" t="s">
+        <v>24</v>
+      </c>
+      <c r="M91" t="s">
+        <v>25</v>
+      </c>
+      <c r="N91" t="s">
+        <v>26</v>
+      </c>
+      <c r="O91" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>20</v>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>51</v>
+      </c>
+      <c r="H92" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" t="s">
+        <v>51</v>
+      </c>
+      <c r="J92" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" t="s">
+        <v>23</v>
+      </c>
+      <c r="L92" t="s">
+        <v>24</v>
+      </c>
+      <c r="M92" t="s">
+        <v>25</v>
+      </c>
+      <c r="N92" t="s">
+        <v>26</v>
+      </c>
+      <c r="O92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>20</v>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>51</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" t="s">
+        <v>51</v>
+      </c>
+      <c r="J93" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" t="s">
+        <v>23</v>
+      </c>
+      <c r="L93" t="s">
+        <v>24</v>
+      </c>
+      <c r="M93" t="s">
+        <v>25</v>
+      </c>
+      <c r="N93" t="s">
+        <v>26</v>
+      </c>
+      <c r="O93" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>67</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>20</v>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>51</v>
+      </c>
+      <c r="H94" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94" t="s">
+        <v>51</v>
+      </c>
+      <c r="J94" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" t="s">
+        <v>23</v>
+      </c>
+      <c r="L94" t="s">
+        <v>24</v>
+      </c>
+      <c r="M94" t="s">
+        <v>25</v>
+      </c>
+      <c r="N94" t="s">
+        <v>26</v>
+      </c>
+      <c r="O94" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>67</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>20</v>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>51</v>
+      </c>
+      <c r="H95" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" t="s">
+        <v>51</v>
+      </c>
+      <c r="J95" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" t="s">
+        <v>23</v>
+      </c>
+      <c r="L95" t="s">
+        <v>24</v>
+      </c>
+      <c r="M95" t="s">
+        <v>25</v>
+      </c>
+      <c r="N95" t="s">
+        <v>26</v>
+      </c>
+      <c r="O95" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>67</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>20</v>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>51</v>
+      </c>
+      <c r="H96" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" t="s">
+        <v>51</v>
+      </c>
+      <c r="J96" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" t="s">
+        <v>23</v>
+      </c>
+      <c r="L96" t="s">
+        <v>24</v>
+      </c>
+      <c r="M96" t="s">
+        <v>25</v>
+      </c>
+      <c r="N96" t="s">
+        <v>26</v>
+      </c>
+      <c r="O96" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ATF4-reporter_IncuCyte/sample_annotations.xlsx
+++ b/ATF4-reporter_IncuCyte/sample_annotations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/ATF4-reporter_IncuCyte/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD096A64-FB24-FA43-AF74-8F04B61E1274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AA57CE-E8A1-8D44-84F3-2D5F378ED7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="1060" windowWidth="19580" windowHeight="16540" xr2:uid="{074EFF7D-5861-BA4A-B250-D9D28156A76F}"/>
+    <workbookView xWindow="7860" yWindow="500" windowWidth="19580" windowHeight="16540" xr2:uid="{074EFF7D-5861-BA4A-B250-D9D28156A76F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="82">
   <si>
     <t>Folder</t>
   </si>
@@ -247,6 +247,39 @@
   </si>
   <si>
     <t>02-15-22_low-ASNS-mean</t>
+  </si>
+  <si>
+    <t>02-22-22_low-eGFP</t>
+  </si>
+  <si>
+    <t>02-22-22_low-ASNS</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>02-20-22_high</t>
+  </si>
+  <si>
+    <t>Malate</t>
+  </si>
+  <si>
+    <t>02-21-22_low</t>
+  </si>
+  <si>
+    <t>Suc</t>
+  </si>
+  <si>
+    <t>Fum</t>
+  </si>
+  <si>
+    <t>Mal</t>
+  </si>
+  <si>
+    <t>Ace</t>
+  </si>
+  <si>
+    <t>03-13-22_high1</t>
   </si>
 </sst>
 </file>
@@ -303,12 +336,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,15 +657,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A08CB7-A45B-BD41-BBD8-43BF4774D53B}">
-  <dimension ref="A1:O96"/>
+  <dimension ref="A1:O117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
   </cols>
@@ -709,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -756,7 +790,7 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -803,7 +837,7 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -850,7 +884,7 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -897,7 +931,7 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -944,7 +978,7 @@
         <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -991,7 +1025,7 @@
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -1038,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -1085,7 +1119,7 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -1132,7 +1166,7 @@
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -1179,7 +1213,7 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -1226,7 +1260,7 @@
         <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -1273,7 +1307,7 @@
         <v>11</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -1320,7 +1354,7 @@
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -1367,7 +1401,7 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -1414,7 +1448,7 @@
         <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -1461,7 +1495,7 @@
         <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -1508,7 +1542,7 @@
         <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1555,7 +1589,7 @@
         <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1602,7 +1636,7 @@
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1649,7 +1683,7 @@
         <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1696,7 +1730,7 @@
         <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1743,7 +1777,7 @@
         <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1790,7 +1824,7 @@
         <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1837,7 +1871,7 @@
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1884,7 +1918,7 @@
         <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1931,7 +1965,7 @@
         <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1978,7 +2012,7 @@
         <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -2025,7 +2059,7 @@
         <v>16</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -2072,7 +2106,7 @@
         <v>11</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -2119,7 +2153,7 @@
         <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -2166,7 +2200,7 @@
         <v>13</v>
       </c>
       <c r="I33" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -2213,7 +2247,7 @@
         <v>14</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -2260,7 +2294,7 @@
         <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -2307,7 +2341,7 @@
         <v>16</v>
       </c>
       <c r="I36" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -2354,7 +2388,7 @@
         <v>11</v>
       </c>
       <c r="I37" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -2401,7 +2435,7 @@
         <v>12</v>
       </c>
       <c r="I38" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -2448,7 +2482,7 @@
         <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -2495,7 +2529,7 @@
         <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -2542,7 +2576,7 @@
         <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -2589,7 +2623,7 @@
         <v>16</v>
       </c>
       <c r="I42" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -2636,7 +2670,7 @@
         <v>11</v>
       </c>
       <c r="I43" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -2683,7 +2717,7 @@
         <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -2730,7 +2764,7 @@
         <v>13</v>
       </c>
       <c r="I45" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -2777,7 +2811,7 @@
         <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -2824,7 +2858,7 @@
         <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -2871,7 +2905,7 @@
         <v>16</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -2918,7 +2952,7 @@
         <v>11</v>
       </c>
       <c r="I49" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
@@ -2965,7 +2999,7 @@
         <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J50" t="s">
         <v>11</v>
@@ -3012,7 +3046,7 @@
         <v>13</v>
       </c>
       <c r="I51" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J51" t="s">
         <v>11</v>
@@ -3059,7 +3093,7 @@
         <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J52" t="s">
         <v>11</v>
@@ -3106,7 +3140,7 @@
         <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J53" t="s">
         <v>11</v>
@@ -3153,7 +3187,7 @@
         <v>16</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J54" t="s">
         <v>11</v>
@@ -3200,7 +3234,7 @@
         <v>12</v>
       </c>
       <c r="I55" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J55" s="2">
         <v>100</v>
@@ -3251,7 +3285,7 @@
         <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J56" s="2">
         <v>3.2</v>
@@ -3302,7 +3336,7 @@
         <v>13</v>
       </c>
       <c r="I57" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J57" s="2">
         <v>1000</v>
@@ -3353,7 +3387,7 @@
         <v>14</v>
       </c>
       <c r="I58" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J58" s="2">
         <v>20</v>
@@ -3404,7 +3438,7 @@
         <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J59" s="2">
         <v>20</v>
@@ -3455,7 +3489,7 @@
         <v>49</v>
       </c>
       <c r="I60" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J60" s="2">
         <v>20</v>
@@ -3506,7 +3540,7 @@
         <v>12</v>
       </c>
       <c r="I61" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J61" s="2">
         <v>100</v>
@@ -3557,7 +3591,7 @@
         <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J62" s="2">
         <v>3.2</v>
@@ -3608,7 +3642,7 @@
         <v>13</v>
       </c>
       <c r="I63" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J63" s="2">
         <v>1000</v>
@@ -3659,7 +3693,7 @@
         <v>14</v>
       </c>
       <c r="I64" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J64" s="2">
         <v>20</v>
@@ -3710,7 +3744,7 @@
         <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J65" s="2">
         <v>20</v>
@@ -3761,7 +3795,7 @@
         <v>49</v>
       </c>
       <c r="I66" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J66" s="2">
         <v>20</v>
@@ -3812,7 +3846,7 @@
         <v>11</v>
       </c>
       <c r="I67" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J67" t="s">
         <v>11</v>
@@ -3859,7 +3893,7 @@
         <v>12</v>
       </c>
       <c r="I68" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J68" t="s">
         <v>27</v>
@@ -3906,7 +3940,7 @@
         <v>13</v>
       </c>
       <c r="I69" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J69" t="s">
         <v>27</v>
@@ -4094,7 +4128,7 @@
         <v>11</v>
       </c>
       <c r="I73" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J73" t="s">
         <v>27</v>
@@ -4141,7 +4175,7 @@
         <v>12</v>
       </c>
       <c r="I74" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J74" t="s">
         <v>27</v>
@@ -4188,7 +4222,7 @@
         <v>13</v>
       </c>
       <c r="I75" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J75" t="s">
         <v>27</v>
@@ -4235,7 +4269,7 @@
         <v>14</v>
       </c>
       <c r="I76" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J76" t="s">
         <v>11</v>
@@ -4282,7 +4316,7 @@
         <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J77" t="s">
         <v>11</v>
@@ -4329,7 +4363,7 @@
         <v>16</v>
       </c>
       <c r="I78" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J78" t="s">
         <v>11</v>
@@ -4376,7 +4410,7 @@
         <v>11</v>
       </c>
       <c r="I79" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J79" t="s">
         <v>11</v>
@@ -4423,7 +4457,7 @@
         <v>12</v>
       </c>
       <c r="I80" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J80" t="s">
         <v>11</v>
@@ -4470,7 +4504,7 @@
         <v>13</v>
       </c>
       <c r="I81" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J81" t="s">
         <v>11</v>
@@ -4517,7 +4551,7 @@
         <v>14</v>
       </c>
       <c r="I82" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J82" t="s">
         <v>11</v>
@@ -4564,7 +4598,7 @@
         <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J83" t="s">
         <v>11</v>
@@ -4611,7 +4645,7 @@
         <v>16</v>
       </c>
       <c r="I84" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J84" t="s">
         <v>11</v>
@@ -4658,7 +4692,7 @@
         <v>11</v>
       </c>
       <c r="I85" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J85" t="s">
         <v>11</v>
@@ -4705,7 +4739,7 @@
         <v>12</v>
       </c>
       <c r="I86" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J86" t="s">
         <v>11</v>
@@ -4752,7 +4786,7 @@
         <v>13</v>
       </c>
       <c r="I87" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J87" t="s">
         <v>11</v>
@@ -4799,7 +4833,7 @@
         <v>11</v>
       </c>
       <c r="I88" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J88" t="s">
         <v>11</v>
@@ -4846,7 +4880,7 @@
         <v>12</v>
       </c>
       <c r="I89" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J89" t="s">
         <v>11</v>
@@ -4893,7 +4927,7 @@
         <v>13</v>
       </c>
       <c r="I90" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J90" t="s">
         <v>11</v>
@@ -4940,7 +4974,7 @@
         <v>11</v>
       </c>
       <c r="I91" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J91" t="s">
         <v>11</v>
@@ -4987,7 +5021,7 @@
         <v>12</v>
       </c>
       <c r="I92" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J92" t="s">
         <v>11</v>
@@ -5034,7 +5068,7 @@
         <v>13</v>
       </c>
       <c r="I93" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J93" t="s">
         <v>11</v>
@@ -5081,7 +5115,7 @@
         <v>11</v>
       </c>
       <c r="I94" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J94" t="s">
         <v>11</v>
@@ -5128,7 +5162,7 @@
         <v>12</v>
       </c>
       <c r="I95" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J95" t="s">
         <v>11</v>
@@ -5175,7 +5209,7 @@
         <v>13</v>
       </c>
       <c r="I96" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J96" t="s">
         <v>11</v>
@@ -5194,6 +5228,993 @@
       </c>
       <c r="O96" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>66</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>20</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>51</v>
+      </c>
+      <c r="H97" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" t="s">
+        <v>61</v>
+      </c>
+      <c r="J97" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" t="s">
+        <v>23</v>
+      </c>
+      <c r="L97" t="s">
+        <v>24</v>
+      </c>
+      <c r="M97" t="s">
+        <v>25</v>
+      </c>
+      <c r="N97" t="s">
+        <v>26</v>
+      </c>
+      <c r="O97" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>66</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>20</v>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>51</v>
+      </c>
+      <c r="H98" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" t="s">
+        <v>61</v>
+      </c>
+      <c r="J98" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" t="s">
+        <v>23</v>
+      </c>
+      <c r="L98" t="s">
+        <v>24</v>
+      </c>
+      <c r="M98" t="s">
+        <v>25</v>
+      </c>
+      <c r="N98" t="s">
+        <v>26</v>
+      </c>
+      <c r="O98" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>66</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>20</v>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>51</v>
+      </c>
+      <c r="H99" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" t="s">
+        <v>61</v>
+      </c>
+      <c r="J99" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" t="s">
+        <v>23</v>
+      </c>
+      <c r="L99" t="s">
+        <v>24</v>
+      </c>
+      <c r="M99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N99" t="s">
+        <v>26</v>
+      </c>
+      <c r="O99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>66</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100">
+        <v>20</v>
+      </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>51</v>
+      </c>
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>61</v>
+      </c>
+      <c r="J100" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" t="s">
+        <v>23</v>
+      </c>
+      <c r="L100" t="s">
+        <v>24</v>
+      </c>
+      <c r="M100" t="s">
+        <v>25</v>
+      </c>
+      <c r="N100" t="s">
+        <v>26</v>
+      </c>
+      <c r="O100" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>66</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101">
+        <v>20</v>
+      </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>51</v>
+      </c>
+      <c r="H101" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" t="s">
+        <v>61</v>
+      </c>
+      <c r="J101" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" t="s">
+        <v>23</v>
+      </c>
+      <c r="L101" t="s">
+        <v>24</v>
+      </c>
+      <c r="M101" t="s">
+        <v>25</v>
+      </c>
+      <c r="N101" t="s">
+        <v>26</v>
+      </c>
+      <c r="O101" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>67</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>20</v>
+      </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>51</v>
+      </c>
+      <c r="H102" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" t="s">
+        <v>61</v>
+      </c>
+      <c r="J102" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" t="s">
+        <v>23</v>
+      </c>
+      <c r="L102" t="s">
+        <v>24</v>
+      </c>
+      <c r="M102" t="s">
+        <v>25</v>
+      </c>
+      <c r="N102" t="s">
+        <v>26</v>
+      </c>
+      <c r="O102" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>67</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>20</v>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>51</v>
+      </c>
+      <c r="H103" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" t="s">
+        <v>61</v>
+      </c>
+      <c r="J103" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" t="s">
+        <v>23</v>
+      </c>
+      <c r="L103" t="s">
+        <v>24</v>
+      </c>
+      <c r="M103" t="s">
+        <v>25</v>
+      </c>
+      <c r="N103" t="s">
+        <v>26</v>
+      </c>
+      <c r="O103" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>67</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>20</v>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>51</v>
+      </c>
+      <c r="H104" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" t="s">
+        <v>61</v>
+      </c>
+      <c r="J104" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" t="s">
+        <v>23</v>
+      </c>
+      <c r="L104" t="s">
+        <v>24</v>
+      </c>
+      <c r="M104" t="s">
+        <v>25</v>
+      </c>
+      <c r="N104" t="s">
+        <v>26</v>
+      </c>
+      <c r="O104" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>67</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105">
+        <v>20</v>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>51</v>
+      </c>
+      <c r="H105" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>61</v>
+      </c>
+      <c r="J105" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" t="s">
+        <v>23</v>
+      </c>
+      <c r="L105" t="s">
+        <v>24</v>
+      </c>
+      <c r="M105" t="s">
+        <v>25</v>
+      </c>
+      <c r="N105" t="s">
+        <v>26</v>
+      </c>
+      <c r="O105" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>67</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106">
+        <v>20</v>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>51</v>
+      </c>
+      <c r="H106" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106" t="s">
+        <v>61</v>
+      </c>
+      <c r="J106" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" t="s">
+        <v>23</v>
+      </c>
+      <c r="L106" t="s">
+        <v>24</v>
+      </c>
+      <c r="M106" t="s">
+        <v>25</v>
+      </c>
+      <c r="N106" t="s">
+        <v>26</v>
+      </c>
+      <c r="O106" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>35</v>
+      </c>
+      <c r="B107" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>14</v>
+      </c>
+      <c r="E107" t="b">
+        <v>1</v>
+      </c>
+      <c r="F107" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H107" t="s">
+        <v>75</v>
+      </c>
+      <c r="I107" t="s">
+        <v>11</v>
+      </c>
+      <c r="J107" s="5">
+        <v>40</v>
+      </c>
+      <c r="K107" s="1">
+        <v>20</v>
+      </c>
+      <c r="L107" s="1">
+        <v>10</v>
+      </c>
+      <c r="M107" s="1">
+        <v>5</v>
+      </c>
+      <c r="N107" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="O107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>35</v>
+      </c>
+      <c r="B108" t="s">
+        <v>74</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>14</v>
+      </c>
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+      <c r="F108" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H108" t="s">
+        <v>75</v>
+      </c>
+      <c r="I108" t="s">
+        <v>12</v>
+      </c>
+      <c r="J108" s="5">
+        <v>40</v>
+      </c>
+      <c r="K108" s="1">
+        <v>20</v>
+      </c>
+      <c r="L108" s="1">
+        <v>10</v>
+      </c>
+      <c r="M108" s="1">
+        <v>5</v>
+      </c>
+      <c r="N108" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="O108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>35</v>
+      </c>
+      <c r="B109" t="s">
+        <v>74</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>14</v>
+      </c>
+      <c r="E109" t="b">
+        <v>1</v>
+      </c>
+      <c r="F109" t="b">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H109" t="s">
+        <v>75</v>
+      </c>
+      <c r="I109" t="s">
+        <v>13</v>
+      </c>
+      <c r="J109" s="5">
+        <v>40</v>
+      </c>
+      <c r="K109" s="1">
+        <v>20</v>
+      </c>
+      <c r="L109" s="1">
+        <v>10</v>
+      </c>
+      <c r="M109" s="1">
+        <v>5</v>
+      </c>
+      <c r="N109" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="O109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>35</v>
+      </c>
+      <c r="B110" t="s">
+        <v>74</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110">
+        <v>14</v>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110" t="b">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H110" t="s">
+        <v>75</v>
+      </c>
+      <c r="I110" t="s">
+        <v>49</v>
+      </c>
+      <c r="J110" s="5">
+        <v>40</v>
+      </c>
+      <c r="K110" s="1">
+        <v>20</v>
+      </c>
+      <c r="L110" s="1">
+        <v>10</v>
+      </c>
+      <c r="M110" s="1">
+        <v>5</v>
+      </c>
+      <c r="N110" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="O110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>6.5</v>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H111" t="s">
+        <v>75</v>
+      </c>
+      <c r="I111" t="s">
+        <v>11</v>
+      </c>
+      <c r="J111" s="5">
+        <v>40</v>
+      </c>
+      <c r="K111" s="1">
+        <v>20</v>
+      </c>
+      <c r="L111" s="1">
+        <v>10</v>
+      </c>
+      <c r="M111" s="1">
+        <v>5</v>
+      </c>
+      <c r="N111" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="O111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>6.5</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" t="b">
+        <v>1</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H112" t="s">
+        <v>75</v>
+      </c>
+      <c r="I112" t="s">
+        <v>12</v>
+      </c>
+      <c r="J112" s="5">
+        <v>40</v>
+      </c>
+      <c r="K112" s="1">
+        <v>20</v>
+      </c>
+      <c r="L112" s="1">
+        <v>10</v>
+      </c>
+      <c r="M112" s="1">
+        <v>5</v>
+      </c>
+      <c r="N112" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="O112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113" t="s">
+        <v>76</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113">
+        <v>6.5</v>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
+      <c r="F113" t="b">
+        <v>1</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H113" t="s">
+        <v>75</v>
+      </c>
+      <c r="I113" t="s">
+        <v>13</v>
+      </c>
+      <c r="J113" s="5">
+        <v>40</v>
+      </c>
+      <c r="K113" s="1">
+        <v>20</v>
+      </c>
+      <c r="L113" s="1">
+        <v>10</v>
+      </c>
+      <c r="M113" s="1">
+        <v>5</v>
+      </c>
+      <c r="N113" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="O113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114" t="s">
+        <v>76</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114">
+        <v>6.5</v>
+      </c>
+      <c r="E114" t="b">
+        <v>1</v>
+      </c>
+      <c r="F114" t="b">
+        <v>1</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H114" t="s">
+        <v>75</v>
+      </c>
+      <c r="I114" t="s">
+        <v>49</v>
+      </c>
+      <c r="J114" s="5">
+        <v>40</v>
+      </c>
+      <c r="K114" s="1">
+        <v>20</v>
+      </c>
+      <c r="L114" s="1">
+        <v>10</v>
+      </c>
+      <c r="M114" s="1">
+        <v>5</v>
+      </c>
+      <c r="N114" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="O114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B115" t="s">
+        <v>81</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H115" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" t="s">
+        <v>61</v>
+      </c>
+      <c r="J115" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>35</v>
+      </c>
+      <c r="B116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" t="s">
+        <v>61</v>
+      </c>
+      <c r="J116" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>35</v>
+      </c>
+      <c r="B117" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H117" t="s">
+        <v>13</v>
+      </c>
+      <c r="I117" t="s">
+        <v>61</v>
+      </c>
+      <c r="J117" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/ATF4-reporter_IncuCyte/sample_annotations.xlsx
+++ b/ATF4-reporter_IncuCyte/sample_annotations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/ATF4-reporter_IncuCyte/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AA57CE-E8A1-8D44-84F3-2D5F378ED7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7C2532-79E0-1241-8AAD-88E0EA1A0EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7860" yWindow="500" windowWidth="19580" windowHeight="16540" xr2:uid="{074EFF7D-5861-BA4A-B250-D9D28156A76F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="84">
   <si>
     <t>Folder</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>03-13-22_high1</t>
+  </si>
+  <si>
+    <t>143B-WT_ATF4-rep_GCN2-KO-pool</t>
+  </si>
+  <si>
+    <t>04-09-22_high-GCN2</t>
   </si>
 </sst>
 </file>
@@ -657,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A08CB7-A45B-BD41-BBD8-43BF4774D53B}">
-  <dimension ref="A1:O117"/>
+  <dimension ref="A1:O123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H120" sqref="H120"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6217,6 +6223,156 @@
         <v>23</v>
       </c>
     </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>82</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C118" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>21</v>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" t="b">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>51</v>
+      </c>
+      <c r="H118" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118" t="s">
+        <v>61</v>
+      </c>
+      <c r="J118" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" t="s">
+        <v>23</v>
+      </c>
+      <c r="L118" t="s">
+        <v>24</v>
+      </c>
+      <c r="M118" t="s">
+        <v>25</v>
+      </c>
+      <c r="N118" t="s">
+        <v>26</v>
+      </c>
+      <c r="O118" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>82</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>21</v>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>51</v>
+      </c>
+      <c r="H119" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" t="s">
+        <v>61</v>
+      </c>
+      <c r="J119" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" t="s">
+        <v>23</v>
+      </c>
+      <c r="L119" t="s">
+        <v>24</v>
+      </c>
+      <c r="M119" t="s">
+        <v>25</v>
+      </c>
+      <c r="N119" t="s">
+        <v>26</v>
+      </c>
+      <c r="O119" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>82</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120">
+        <v>21</v>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>51</v>
+      </c>
+      <c r="H120" t="s">
+        <v>13</v>
+      </c>
+      <c r="I120" t="s">
+        <v>61</v>
+      </c>
+      <c r="J120" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" t="s">
+        <v>23</v>
+      </c>
+      <c r="L120" t="s">
+        <v>24</v>
+      </c>
+      <c r="M120" t="s">
+        <v>25</v>
+      </c>
+      <c r="N120" t="s">
+        <v>26</v>
+      </c>
+      <c r="O120" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B121" s="4"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B122" s="4"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B123" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
